--- a/biology/Botanique/Charles_Louis_Constant_Pauquy/Charles_Louis_Constant_Pauquy.xlsx
+++ b/biology/Botanique/Charles_Louis_Constant_Pauquy/Charles_Louis_Constant_Pauquy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Louis Constant Pauquy est un médecin et un botaniste français, né le 27 septembre 1800 à Amiens et mort le 11 février 1854 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du pharmacien qui exerçait rue St leu, il s'occupa d'abord d'études pharmaceutiques à l'école de pharmacie de Paris, et y obtint, en 1821, le premier prix de botanique, branche de science dont il avait déjà suivi avec succès le cours à Amiens, ainsi qu'en même temps un accessit de chimie.
 Mais il abandonne la pharmacie pour la médecine et obtient son titre de docteur en médecine en 1825 avec une thèse sur la belladone: De la belladone, considérée sous ses rapports botanique, chimique, pharmaceutique, pharmacologique et thérapeutique, etc.
@@ -548,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>André Charpin et Gérard-Guy Aymonin (2004), Bibliographie sélective des Flores de France. V. Notices biographiques sur les auteurs cités : P-Z et compléments. Le Journal de Botanique de la Société botanique de France, 27 : 47-87.
 Pancier F. L'enseignement de la pharmacie en province et plus particulièrement à Amiens au début du XIXe siècle. In: Revue d'histoire de la pharmacie, 23e année, N. 90, 1935. p. 57-77.
